--- a/tests/io/data/wrong-load-file.xlsx
+++ b/tests/io/data/wrong-load-file.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t xml:space="preserve">outer</t>
   </si>
@@ -32,33 +32,21 @@
     <t xml:space="preserve">endpoint1</t>
   </si>
   <si>
+    <t xml:space="preserve">endpoint2</t>
+  </si>
+  <si>
     <t xml:space="preserve">endpoint3</t>
   </si>
   <si>
-    <t xml:space="preserve">endpoint4</t>
-  </si>
-  <si>
     <t xml:space="preserve">worksheet</t>
   </si>
   <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
     <t xml:space="preserve">mapping</t>
   </si>
   <si>
-    <t xml:space="preserve">end_point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">dtype</t>
   </si>
   <si>
-    <t xml:space="preserve">stable</t>
-  </si>
-  <si>
     <t xml:space="preserve">row_start</t>
   </si>
   <si>
@@ -74,31 +62,25 @@
     <t xml:space="preserve">test_dict</t>
   </si>
   <si>
-    <t xml:space="preserve">/outer/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY</t>
+    <t xml:space="preserve">/outer</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;class 'str'&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">/outer/inner/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/outer/inner/endpoint1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUE</t>
+    <t xml:space="preserve">/outer/inner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/outer/inner/endpoint1</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;class 'int'&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">/outer/inner/endpoint2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/endpoint3/</t>
+    <t xml:space="preserve">/outer/inner/endpoint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/endpoint3</t>
   </si>
 </sst>
 </file>
@@ -199,7 +181,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,7 +232,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -280,224 +262,188 @@
       <c r="G1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>3</v>
       </c>
     </row>
